--- a/legislator/property/output/normal/廖正井_2012-04-20_財產申報表_tmp845a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2012-04-20_財產申報表_tmp845a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="93">
   <si>
     <t>土地坐落</t>
   </si>
@@ -200,6 +200,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -258,6 +261,9 @@
   </si>
   <si>
     <t>萬有</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-20</t>
@@ -1419,13 +1425,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1453,13 +1459,16 @@
       <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1477,21 +1486,24 @@
         <v>4569100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2">
+        <v>82</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1509,21 +1521,24 @@
         <v>6810</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2">
+        <v>82</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1541,21 +1556,24 @@
         <v>4080</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2">
+        <v>82</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1573,21 +1591,24 @@
         <v>24730</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="2">
+        <v>82</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1605,21 +1626,24 @@
         <v>1476500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="2">
+        <v>82</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1637,21 +1661,24 @@
         <v>1130140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="2">
+        <v>82</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1669,21 +1696,24 @@
         <v>56100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="2">
+        <v>82</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1701,21 +1731,24 @@
         <v>920</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="2">
+        <v>82</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1733,21 +1766,24 @@
         <v>526600</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="2">
+        <v>82</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -1765,21 +1801,24 @@
         <v>181810</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2">
+        <v>82</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -1797,21 +1836,24 @@
         <v>638090</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="2">
+        <v>82</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1829,21 +1871,24 @@
         <v>222230</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="2">
+        <v>82</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -1861,21 +1906,24 @@
         <v>147630</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="2">
+        <v>82</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -1893,21 +1941,24 @@
         <v>73060</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="2">
+        <v>82</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -1925,21 +1976,24 @@
         <v>52680</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="2">
+        <v>82</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -1957,21 +2011,24 @@
         <v>22860</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="2">
+        <v>82</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -1989,12 +2046,15 @@
         <v>118800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="2">
+        <v>82</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="2">
         <v>1711</v>
       </c>
     </row>
@@ -2013,22 +2073,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2039,19 +2099,19 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
         <v>10200000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖正井_2012-04-20_財產申報表_tmp845a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2012-04-20_財產申報表_tmp845a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="98">
   <si>
     <t>土地坐落</t>
   </si>
@@ -203,6 +203,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -212,6 +215,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>台北富邦銀行</t>
   </si>
   <si>
@@ -266,7 +275,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-20</t>
+  </si>
+  <si>
+    <t>tmp845a1</t>
   </si>
   <si>
     <t>投資人</t>
@@ -1425,13 +1440,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1462,13 +1477,22 @@
       <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1486,24 +1510,33 @@
         <v>4569100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2">
+        <v>86</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1521,24 +1554,33 @@
         <v>6810</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2">
+        <v>86</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1556,24 +1598,33 @@
         <v>4080</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="2">
+        <v>86</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1591,24 +1642,33 @@
         <v>24730</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1711</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="2">
         <v>81</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1626,24 +1686,33 @@
         <v>1476500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1711</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="2">
         <v>82</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1661,24 +1730,33 @@
         <v>1130140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="2">
+        <v>86</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1696,24 +1774,33 @@
         <v>56100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="2">
+        <v>86</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1731,24 +1818,33 @@
         <v>920</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="2">
+        <v>86</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1766,24 +1862,33 @@
         <v>526600</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="2">
+        <v>86</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -1801,24 +1906,33 @@
         <v>181810</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="2">
+        <v>86</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -1836,24 +1950,33 @@
         <v>638090</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="2">
+        <v>86</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1871,24 +1994,33 @@
         <v>222230</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="2">
+        <v>86</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -1906,24 +2038,33 @@
         <v>147630</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="2">
+        <v>86</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -1941,24 +2082,33 @@
         <v>73060</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="2">
+        <v>86</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -1976,24 +2126,33 @@
         <v>52680</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="2">
+        <v>86</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -2011,24 +2170,33 @@
         <v>22860</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="2">
+        <v>86</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -2046,16 +2214,25 @@
         <v>118800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="2">
+        <v>86</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="2">
         <v>1711</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" s="2">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2073,22 +2250,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2099,19 +2276,19 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>10200000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖正井_2012-04-20_財產申報表_tmp845a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2012-04-20_財產申報表_tmp845a1.xlsx
@@ -18,9 +18,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="98">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="103">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>桃園縣中壢市石頭段00490032地號</t>
+  </si>
+  <si>
+    <t>桃園縣中壢市石頭段00490033地號</t>
+  </si>
+  <si>
+    <t>桃園縣中壢市石頭段01320055地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段二小段01110000地號</t>
+  </si>
+  <si>
+    <t>4分之2</t>
+  </si>
+  <si>
+    <t>10000分之566</t>
+  </si>
+  <si>
+    <t>廖正井</t>
+  </si>
+  <si>
+    <t>楊啟津</t>
+  </si>
+  <si>
+    <t>70年</t>
+  </si>
+  <si>
+    <t>82年</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-20</t>
+  </si>
+  <si>
+    <t>tmp845a1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,58 +134,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>桃園縣中壢市石頭段0049-0032 地號</t>
-  </si>
-  <si>
-    <t>桃園縣中壢市石頭段0049-0033 地號</t>
-  </si>
-  <si>
-    <t>桃園縣中壢市石頭段0132-0055 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段二小段 0111-0000 地號</t>
-  </si>
-  <si>
-    <t>4分之2</t>
-  </si>
-  <si>
-    <t>10000分之 566</t>
-  </si>
-  <si>
-    <t>廖正井</t>
-  </si>
-  <si>
-    <t>楊啟津</t>
-  </si>
-  <si>
-    <t>70年</t>
-  </si>
-  <si>
-    <t>82年</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>桃園縣中壢市石頭段06151 -000 建號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市石頭段06152-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段二小段 01874-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段二小段 01875-000 建號</t>
+    <t>桃園縣中壢市石頭段06151000建號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市石頭段06152000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段二小段01874000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段二小段01875000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -101,7 +152,7 @@
     <t>30分之2</t>
   </si>
   <si>
-    <t>(超過五年’停 車位）</t>
+    <t>(超過五年停車位）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -131,28 +182,28 @@
     <t>第一商業銀行民生分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行市府分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行城中分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司桃 圜府前郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台 北信維郵局</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行信義分 行</t>
+    <t>台北富邦商業銀行市府分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司桃圜府前郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北信維郵局</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行信義分行</t>
   </si>
   <si>
     <t>臺灣土地銀行古亭分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行敦南分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行敦和分 行</t>
+    <t>中國信託商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行敦和分行</t>
   </si>
   <si>
     <t>兆豐國際商業銀行國外部</t>
@@ -182,12 +233,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -200,27 +245,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>台北富邦銀行</t>
   </si>
   <si>
@@ -275,15 +299,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-20</t>
-  </si>
-  <si>
-    <t>tmp845a1</t>
-  </si>
-  <si>
     <t>投資人</t>
   </si>
   <si>
@@ -305,10 +320,10 @@
     <t>加典投資公司</t>
   </si>
   <si>
-    <t>臺北市中山區長春路378號 6F</t>
-  </si>
-  <si>
-    <t>100年07月 14 H</t>
+    <t>臺北市中山區長春路378號6F</t>
+  </si>
+  <si>
+    <t>100年07月14H</t>
   </si>
   <si>
     <t>個人投資</t>
@@ -670,13 +685,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,109 +713,214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1466</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2">
         <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -818,25 +938,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -844,25 +964,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>187.97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -870,25 +990,25 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>92.86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -896,25 +1016,25 @@
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
         <v>219.71</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -922,25 +1042,25 @@
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>475</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -958,19 +1078,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -978,16 +1098,16 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>2529</v>
@@ -998,16 +1118,16 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>2884102</v>
@@ -1018,16 +1138,16 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>2980317</v>
@@ -1038,16 +1158,16 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>3002724</v>
@@ -1058,16 +1178,16 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
         <v>595860</v>
@@ -1078,16 +1198,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <v>440635</v>
@@ -1098,16 +1218,16 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
         <v>4552574</v>
@@ -1118,16 +1238,16 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2">
         <v>273940</v>
@@ -1138,16 +1258,16 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2">
         <v>1012599</v>
@@ -1158,16 +1278,16 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2">
         <v>1012905</v>
@@ -1178,16 +1298,16 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2">
         <v>1105792</v>
@@ -1198,16 +1318,16 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2">
         <v>8042</v>
@@ -1218,16 +1338,16 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2">
         <v>308103</v>
@@ -1238,16 +1358,16 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2">
         <v>226080</v>
@@ -1258,16 +1378,16 @@
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2">
         <v>2754441</v>
@@ -1278,16 +1398,16 @@
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2">
         <v>3349277</v>
@@ -1298,16 +1418,16 @@
         <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2">
         <v>1065233</v>
@@ -1318,16 +1438,16 @@
         <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2">
         <v>339819</v>
@@ -1338,16 +1458,16 @@
         <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2">
         <v>2879485</v>
@@ -1358,16 +1478,16 @@
         <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2">
         <v>7035</v>
@@ -1378,16 +1498,16 @@
         <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2">
         <v>69308</v>
@@ -1398,16 +1518,16 @@
         <v>70</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F23" s="2">
         <v>588900</v>
@@ -1418,16 +1538,16 @@
         <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F24" s="2">
         <v>667867</v>
@@ -1448,43 +1568,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1492,10 +1612,10 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>456910</v>
@@ -1504,28 +1624,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
         <v>4569100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>1711</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <v>78</v>
@@ -1536,10 +1656,10 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>681</v>
@@ -1548,28 +1668,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2">
         <v>6810</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2">
         <v>1711</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <v>79</v>
@@ -1580,10 +1700,10 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>408</v>
@@ -1592,28 +1712,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2">
         <v>4080</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L4" s="2">
         <v>1711</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
         <v>80</v>
@@ -1624,10 +1744,10 @@
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
         <v>2473</v>
@@ -1636,28 +1756,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2">
         <v>24730</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2">
         <v>1711</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
         <v>81</v>
@@ -1668,10 +1788,10 @@
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
         <v>147650</v>
@@ -1680,28 +1800,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2">
         <v>1476500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L6" s="2">
         <v>1711</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
         <v>82</v>
@@ -1712,10 +1832,10 @@
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
         <v>113014</v>
@@ -1724,28 +1844,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2">
         <v>1130140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L7" s="2">
         <v>1711</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2">
         <v>83</v>
@@ -1756,10 +1876,10 @@
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
         <v>5610</v>
@@ -1768,28 +1888,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2">
         <v>56100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L8" s="2">
         <v>1711</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N8" s="2">
         <v>84</v>
@@ -1800,10 +1920,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>92</v>
@@ -1812,28 +1932,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2">
         <v>920</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L9" s="2">
         <v>1711</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N9" s="2">
         <v>85</v>
@@ -1844,10 +1964,10 @@
         <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
         <v>52660</v>
@@ -1856,28 +1976,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2">
         <v>526600</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L10" s="2">
         <v>1711</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N10" s="2">
         <v>86</v>
@@ -1888,10 +2008,10 @@
         <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
         <v>18181</v>
@@ -1900,28 +2020,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2">
         <v>181810</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L11" s="2">
         <v>1711</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N11" s="2">
         <v>87</v>
@@ -1932,10 +2052,10 @@
         <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
         <v>63809</v>
@@ -1944,28 +2064,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2">
         <v>638090</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L12" s="2">
         <v>1711</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N12" s="2">
         <v>88</v>
@@ -1976,10 +2096,10 @@
         <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2">
         <v>22223</v>
@@ -1988,28 +2108,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2">
         <v>222230</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L13" s="2">
         <v>1711</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N13" s="2">
         <v>89</v>
@@ -2020,10 +2140,10 @@
         <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
         <v>14763</v>
@@ -2032,28 +2152,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2">
         <v>147630</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L14" s="2">
         <v>1711</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N14" s="2">
         <v>90</v>
@@ -2064,10 +2184,10 @@
         <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2">
         <v>7306</v>
@@ -2076,28 +2196,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G15" s="2">
         <v>73060</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L15" s="2">
         <v>1711</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N15" s="2">
         <v>91</v>
@@ -2108,10 +2228,10 @@
         <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2">
         <v>5268</v>
@@ -2120,28 +2240,28 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G16" s="2">
         <v>52680</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L16" s="2">
         <v>1711</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N16" s="2">
         <v>92</v>
@@ -2152,10 +2272,10 @@
         <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2">
         <v>2286</v>
@@ -2164,28 +2284,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2">
         <v>22860</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L17" s="2">
         <v>1711</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N17" s="2">
         <v>93</v>
@@ -2196,10 +2316,10 @@
         <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2">
         <v>11880</v>
@@ -2208,28 +2328,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2">
         <v>118800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L18" s="2">
         <v>1711</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N18" s="2">
         <v>94</v>
@@ -2250,22 +2370,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2273,22 +2393,22 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>10200000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖正井_2012-04-20_財產申報表_tmp845a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2012-04-20_財產申報表_tmp845a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>桃園縣中壢市石頭段00490032地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>桃園縣中壢市石頭段00490033地號</t>
@@ -113,30 +116,12 @@
     <t>tmp845a1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>桃園縣中壢市石頭段06151000建號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>桃圜縣中壢市石頭段06152000建號</t>
   </si>
   <si>
@@ -146,33 +131,21 @@
     <t>臺北市大安區大安段二小段01875000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>30分之2</t>
   </si>
   <si>
     <t>(超過五年停車位）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行桃園分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣銀行東桃園分行</t>
   </si>
   <si>
@@ -221,18 +194,12 @@
     <t>元大商業銀行南東分行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -242,12 +209,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>台北富邦銀行</t>
-  </si>
-  <si>
     <t>中國鋼鐵</t>
   </si>
   <si>
@@ -297,24 +258,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>加典投資公司</t>
@@ -685,13 +628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,193 +677,170 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2">
         <v>1711</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>77</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2">
         <v>1711</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1466</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2">
         <v>1711</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1466</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1711</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="2">
-        <v>16</v>
+      <c r="P4" s="2">
+        <v>0.0566</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>82.9756</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +850,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -938,129 +858,103 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="C1" s="1">
+        <v>187.97</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
-        <v>187.97</v>
+        <v>92.86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
-        <v>92.86</v>
+        <v>219.71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2">
-        <v>219.71</v>
+        <v>475</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2">
-        <v>475</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +964,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1078,478 +972,458 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2529</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
-        <v>2529</v>
+        <v>2884102</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>2884102</v>
+        <v>2980317</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
-        <v>2980317</v>
+        <v>3002724</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
-        <v>3002724</v>
+        <v>595860</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2">
-        <v>595860</v>
+        <v>440635</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2">
-        <v>440635</v>
+        <v>4552574</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2">
-        <v>4552574</v>
+        <v>273940</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2">
-        <v>273940</v>
+        <v>1012599</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2">
-        <v>1012599</v>
+        <v>1012905</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2">
-        <v>1012905</v>
+        <v>1105792</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2">
-        <v>1105792</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2">
-        <v>8042</v>
+        <v>308103</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2">
-        <v>308103</v>
+        <v>226080</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2">
-        <v>226080</v>
+        <v>2754441</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2">
-        <v>2754441</v>
+        <v>3349277</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2">
-        <v>3349277</v>
+        <v>1065233</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2">
-        <v>1065233</v>
+        <v>339819</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2">
-        <v>339819</v>
+        <v>2879485</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2">
-        <v>2879485</v>
+        <v>7035</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" s="2">
-        <v>7035</v>
+        <v>69308</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" s="2">
-        <v>69308</v>
+        <v>588900</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" s="2">
-        <v>588900</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>71</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="2">
         <v>667867</v>
       </c>
     </row>
@@ -1560,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1574,16 +1448,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1609,749 +1483,705 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
-        <v>456910</v>
+        <v>681</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
-        <v>4569100</v>
+        <v>6810</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2">
         <v>1711</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
-        <v>681</v>
+        <v>408</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
-        <v>6810</v>
+        <v>4080</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2">
         <v>1711</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
-        <v>408</v>
+        <v>2473</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
-        <v>4080</v>
+        <v>24730</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2">
         <v>1711</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
-        <v>2473</v>
+        <v>147650</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2">
-        <v>24730</v>
+        <v>1476500</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2">
         <v>1711</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
-        <v>147650</v>
+        <v>113014</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2">
-        <v>1476500</v>
+        <v>1130140</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2">
         <v>1711</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>113014</v>
+        <v>5610</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2">
-        <v>1130140</v>
+        <v>56100</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" s="2">
         <v>1711</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
-        <v>5610</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2">
-        <v>56100</v>
+        <v>920</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2">
         <v>1711</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
-        <v>92</v>
+        <v>52660</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2">
-        <v>920</v>
+        <v>526600</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" s="2">
         <v>1711</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N9" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>52660</v>
+        <v>18181</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2">
-        <v>526600</v>
+        <v>181810</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L10" s="2">
         <v>1711</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N10" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>18181</v>
+        <v>63809</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2">
-        <v>181810</v>
+        <v>638090</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" s="2">
         <v>1711</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N11" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
-        <v>63809</v>
+        <v>22223</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2">
-        <v>638090</v>
+        <v>222230</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" s="2">
         <v>1711</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N12" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>22223</v>
+        <v>14763</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2">
-        <v>222230</v>
+        <v>147630</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L13" s="2">
         <v>1711</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N13" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2">
-        <v>14763</v>
+        <v>7306</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G14" s="2">
-        <v>147630</v>
+        <v>73060</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14" s="2">
         <v>1711</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N14" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2">
-        <v>7306</v>
+        <v>5268</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G15" s="2">
-        <v>73060</v>
+        <v>52680</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15" s="2">
         <v>1711</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N15" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2">
-        <v>5268</v>
+        <v>2286</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G16" s="2">
-        <v>52680</v>
+        <v>22860</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L16" s="2">
         <v>1711</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N16" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2">
-        <v>2286</v>
+        <v>11880</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G17" s="2">
-        <v>22860</v>
+        <v>118800</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L17" s="2">
         <v>1711</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N17" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1">
-        <v>94</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2">
-        <v>11880</v>
-      </c>
-      <c r="E18" s="2">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="2">
-        <v>118800</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1711</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="2">
         <v>94</v>
       </c>
     </row>
@@ -2362,53 +2192,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10200000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>134</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10200000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖正井_2012-04-20_財產申報表_tmp845a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2012-04-20_財產申報表_tmp845a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>桃園縣中壢市石頭段00490032地號</t>
+  </si>
+  <si>
     <t>桃園縣中壢市石頭段00490033地號</t>
   </si>
   <si>
@@ -119,18 +122,18 @@
     <t>桃園縣中壢市石頭段06151000建號</t>
   </si>
   <si>
+    <t>桃圜縣中壢市石頭段06152000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段二小段01874000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段二小段01875000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>桃圜縣中壢市石頭段06152000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段二小段01874000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段二小段01875000建號</t>
-  </si>
-  <si>
     <t>30分之2</t>
   </si>
   <si>
@@ -207,6 +210,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>台北富邦銀行</t>
   </si>
   <si>
     <t>中國鋼鐵</t>
@@ -628,7 +634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -686,7 +692,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -695,40 +701,40 @@
         <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2">
         <v>1711</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>0.5</v>
@@ -739,66 +745,66 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
         <v>1711</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.5</v>
       </c>
       <c r="Q3" s="2">
-        <v>2</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1466</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -813,33 +819,86 @@
         <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2">
         <v>1711</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1466</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="2">
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2">
         <v>16</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P5" s="2">
         <v>0.0566</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q5" s="2">
         <v>82.9756</v>
       </c>
     </row>
@@ -850,73 +909,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2">
+        <v>187.97</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1">
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>187.97</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>92.86</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2">
-        <v>219.71</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -928,33 +1041,140 @@
         <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>92.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
-        <v>475</v>
+        <v>219.71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2">
+        <v>23</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>219.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
         <v>24</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2">
+        <v>475</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2">
+        <v>24</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>31.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -964,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -972,16 +1192,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1">
         <v>2529</v>
@@ -989,441 +1209,461 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2">
-        <v>2884102</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
-        <v>2980317</v>
+        <v>2884102</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
-        <v>3002724</v>
+        <v>2980317</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2">
-        <v>595860</v>
+        <v>3002724</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2">
-        <v>440635</v>
+        <v>595860</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
-        <v>4552574</v>
+        <v>440635</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="2">
-        <v>273940</v>
+        <v>4552574</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2">
-        <v>1012599</v>
+        <v>273940</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2">
-        <v>1012905</v>
+        <v>1012599</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2">
-        <v>1105792</v>
+        <v>1012905</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2">
-        <v>8042</v>
+        <v>1105792</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2">
-        <v>308103</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2">
-        <v>226080</v>
+        <v>308103</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2">
-        <v>2754441</v>
+        <v>226080</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2">
-        <v>3349277</v>
+        <v>2754441</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2">
-        <v>1065233</v>
+        <v>3349277</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="2">
-        <v>339819</v>
+        <v>1065233</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="2">
-        <v>2879485</v>
+        <v>339819</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2">
-        <v>7035</v>
+        <v>2879485</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2">
-        <v>69308</v>
+        <v>7035</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2">
-        <v>588900</v>
+        <v>69308</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="2">
+        <v>588900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>71</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2">
         <v>667867</v>
       </c>
     </row>
@@ -1434,7 +1674,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1448,13 +1688,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1483,705 +1723,749 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
-        <v>681</v>
+        <v>456910</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2">
-        <v>6810</v>
+        <v>4569100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2">
         <v>1711</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
-        <v>408</v>
+        <v>681</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2">
-        <v>4080</v>
+        <v>6810</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2">
         <v>1711</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2">
-        <v>2473</v>
+        <v>408</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2">
-        <v>24730</v>
+        <v>4080</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2">
         <v>1711</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
-        <v>147650</v>
+        <v>2473</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2">
-        <v>1476500</v>
+        <v>24730</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2">
         <v>1711</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
-        <v>113014</v>
+        <v>147650</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2">
-        <v>1130140</v>
+        <v>1476500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2">
         <v>1711</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N6" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
-        <v>5610</v>
+        <v>113014</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2">
-        <v>56100</v>
+        <v>1130140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2">
         <v>1711</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
-        <v>92</v>
+        <v>5610</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2">
-        <v>920</v>
+        <v>56100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2">
         <v>1711</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>52660</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2">
-        <v>526600</v>
+        <v>920</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2">
         <v>1711</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N9" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
-        <v>18181</v>
+        <v>52660</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2">
-        <v>181810</v>
+        <v>526600</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="2">
         <v>1711</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>63809</v>
+        <v>18181</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2">
-        <v>638090</v>
+        <v>181810</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="2">
         <v>1711</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N11" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2">
-        <v>22223</v>
+        <v>63809</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2">
-        <v>222230</v>
+        <v>638090</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L12" s="2">
         <v>1711</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N12" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
-        <v>14763</v>
+        <v>22223</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2">
-        <v>147630</v>
+        <v>222230</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" s="2">
         <v>1711</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N13" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2">
-        <v>7306</v>
+        <v>14763</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2">
-        <v>73060</v>
+        <v>147630</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L14" s="2">
         <v>1711</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N14" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2">
-        <v>5268</v>
+        <v>7306</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" s="2">
-        <v>52680</v>
+        <v>73060</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L15" s="2">
         <v>1711</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N15" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2">
-        <v>2286</v>
+        <v>5268</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" s="2">
-        <v>22860</v>
+        <v>52680</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" s="2">
         <v>1711</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N16" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2">
-        <v>11880</v>
+        <v>2286</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" s="2">
-        <v>118800</v>
+        <v>22860</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" s="2">
         <v>1711</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1">
+        <v>94</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2">
+        <v>11880</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="2">
+        <v>118800</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="2">
+      <c r="K18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1711</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="2">
         <v>94</v>
       </c>
     </row>
@@ -2192,30 +2476,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1">
         <v>10200000</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10200000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖正井_2012-04-20_財產申報表_tmp845a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2012-04-20_財產申報表_tmp845a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>(超過五年停車位）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>臺灣銀行桃園分行</t>
@@ -991,7 +994,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
@@ -1044,7 +1047,7 @@
         <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>30</v>
@@ -1097,7 +1100,7 @@
         <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>30</v>
@@ -1150,7 +1153,7 @@
         <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>30</v>
@@ -1192,13 +1195,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1212,13 +1215,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1232,13 +1235,13 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1252,13 +1255,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1272,13 +1275,13 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1292,13 +1295,13 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1312,13 +1315,13 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1332,13 +1335,13 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -1352,13 +1355,13 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -1372,13 +1375,13 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1392,13 +1395,13 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
@@ -1412,13 +1415,13 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1432,13 +1435,13 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1452,13 +1455,13 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>23</v>
@@ -1472,13 +1475,13 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>23</v>
@@ -1492,13 +1495,13 @@
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>23</v>
@@ -1512,13 +1515,13 @@
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>23</v>
@@ -1532,13 +1535,13 @@
         <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>23</v>
@@ -1552,13 +1555,13 @@
         <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>23</v>
@@ -1572,13 +1575,13 @@
         <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>23</v>
@@ -1592,13 +1595,13 @@
         <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>23</v>
@@ -1612,13 +1615,13 @@
         <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>23</v>
@@ -1632,13 +1635,13 @@
         <v>70</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>23</v>
@@ -1652,13 +1655,13 @@
         <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>23</v>
@@ -1688,13 +1691,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1726,7 +1729,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1738,13 +1741,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2">
         <v>4569100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>30</v>
@@ -1770,7 +1773,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1782,13 +1785,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2">
         <v>6810</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>30</v>
@@ -1814,7 +1817,7 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1826,13 +1829,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2">
         <v>4080</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>30</v>
@@ -1858,7 +1861,7 @@
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -1870,13 +1873,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2">
         <v>24730</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>30</v>
@@ -1902,7 +1905,7 @@
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -1914,13 +1917,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2">
         <v>1476500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>30</v>
@@ -1946,7 +1949,7 @@
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -1958,13 +1961,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2">
         <v>1130140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
@@ -1990,7 +1993,7 @@
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -2002,13 +2005,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2">
         <v>56100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>30</v>
@@ -2034,7 +2037,7 @@
         <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -2046,13 +2049,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2">
         <v>920</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>30</v>
@@ -2078,7 +2081,7 @@
         <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -2090,13 +2093,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="2">
         <v>526600</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>30</v>
@@ -2122,7 +2125,7 @@
         <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -2134,13 +2137,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2">
         <v>181810</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>30</v>
@@ -2166,7 +2169,7 @@
         <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
@@ -2178,13 +2181,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2">
         <v>638090</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
@@ -2210,7 +2213,7 @@
         <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
@@ -2222,13 +2225,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2">
         <v>222230</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>30</v>
@@ -2254,7 +2257,7 @@
         <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>23</v>
@@ -2266,13 +2269,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2">
         <v>147630</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>30</v>
@@ -2298,7 +2301,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>23</v>
@@ -2310,13 +2313,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2">
         <v>73060</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>30</v>
@@ -2342,7 +2345,7 @@
         <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>23</v>
@@ -2354,13 +2357,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" s="2">
         <v>52680</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>30</v>
@@ -2386,7 +2389,7 @@
         <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>23</v>
@@ -2398,13 +2401,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2">
         <v>22860</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>30</v>
@@ -2430,7 +2433,7 @@
         <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -2442,13 +2445,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" s="2">
         <v>118800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>30</v>
@@ -2487,19 +2490,19 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1">
         <v>10200000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2510,19 +2513,19 @@
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2">
         <v>10200000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖正井_2012-04-20_財產申報表_tmp845a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2012-04-20_財產申報表_tmp845a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -143,76 +143,85 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行桃園分行</t>
   </si>
   <si>
+    <t>臺灣銀行東桃園分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行大安分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行民生分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行市府分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司桃圜府前郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北信維郵局</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行古亭分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行敦和分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行國外部</t>
+  </si>
+  <si>
+    <t>華南商業銀行信维分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行大安分行</t>
+  </si>
+  <si>
+    <t>遠東國際商業銀行營業部</t>
+  </si>
+  <si>
+    <t>元大商業銀行南東分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行東桃園分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行大安分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行民生分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行市府分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司桃圜府前郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台北信維郵局</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行信義分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行古亭分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行敦南分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行敦和分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行國外部</t>
-  </si>
-  <si>
-    <t>華南商業銀行信维分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行大安分行</t>
-  </si>
-  <si>
-    <t>遠東國際商業銀行營業部</t>
-  </si>
-  <si>
-    <t>元大商業銀行南東分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>台北富邦銀行</t>
@@ -1187,13 +1196,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1204,24 +1213,45 @@
         <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1229,19 +1259,40 @@
       <c r="F2" s="2">
         <v>2529</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1249,19 +1300,40 @@
       <c r="F3" s="2">
         <v>2884102</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1269,19 +1341,40 @@
       <c r="F4" s="2">
         <v>2980317</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1289,19 +1382,40 @@
       <c r="F5" s="2">
         <v>3002724</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1309,19 +1423,40 @@
       <c r="F6" s="2">
         <v>595860</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1329,19 +1464,40 @@
       <c r="F7" s="2">
         <v>440635</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -1349,19 +1505,40 @@
       <c r="F8" s="2">
         <v>4552574</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -1369,19 +1546,40 @@
       <c r="F9" s="2">
         <v>273940</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1389,19 +1587,40 @@
       <c r="F10" s="2">
         <v>1012599</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
@@ -1409,19 +1628,40 @@
       <c r="F11" s="2">
         <v>1012905</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1429,19 +1669,40 @@
       <c r="F12" s="2">
         <v>1105792</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1449,19 +1710,40 @@
       <c r="F13" s="2">
         <v>8042</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>23</v>
@@ -1469,19 +1751,40 @@
       <c r="F14" s="2">
         <v>308103</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>23</v>
@@ -1489,19 +1792,40 @@
       <c r="F15" s="2">
         <v>226080</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>23</v>
@@ -1509,19 +1833,40 @@
       <c r="F16" s="2">
         <v>2754441</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>23</v>
@@ -1529,19 +1874,40 @@
       <c r="F17" s="2">
         <v>3349277</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>23</v>
@@ -1549,19 +1915,40 @@
       <c r="F18" s="2">
         <v>1065233</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>23</v>
@@ -1569,19 +1956,40 @@
       <c r="F19" s="2">
         <v>339819</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>23</v>
@@ -1589,19 +1997,40 @@
       <c r="F20" s="2">
         <v>2879485</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>23</v>
@@ -1609,19 +2038,40 @@
       <c r="F21" s="2">
         <v>7035</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>23</v>
@@ -1629,19 +2079,40 @@
       <c r="F22" s="2">
         <v>69308</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>70</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>23</v>
@@ -1649,25 +2120,67 @@
       <c r="F23" s="2">
         <v>588900</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2">
         <v>667867</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1691,13 +2204,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1729,7 +2242,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1741,13 +2254,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2">
         <v>4569100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>30</v>
@@ -1773,7 +2286,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1785,13 +2298,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2">
         <v>6810</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>30</v>
@@ -1817,7 +2330,7 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1829,13 +2342,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2">
         <v>4080</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>30</v>
@@ -1861,7 +2374,7 @@
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -1873,13 +2386,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2">
         <v>24730</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>30</v>
@@ -1905,7 +2418,7 @@
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -1917,13 +2430,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2">
         <v>1476500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>30</v>
@@ -1949,7 +2462,7 @@
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -1961,13 +2474,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2">
         <v>1130140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
@@ -1993,7 +2506,7 @@
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -2005,13 +2518,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G8" s="2">
         <v>56100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>30</v>
@@ -2037,7 +2550,7 @@
         <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -2049,13 +2562,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2">
         <v>920</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>30</v>
@@ -2081,7 +2594,7 @@
         <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -2093,13 +2606,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2">
         <v>526600</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>30</v>
@@ -2125,7 +2638,7 @@
         <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -2137,13 +2650,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2">
         <v>181810</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>30</v>
@@ -2169,7 +2682,7 @@
         <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
@@ -2181,13 +2694,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G12" s="2">
         <v>638090</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
@@ -2213,7 +2726,7 @@
         <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
@@ -2225,13 +2738,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2">
         <v>222230</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>30</v>
@@ -2257,7 +2770,7 @@
         <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>23</v>
@@ -2269,13 +2782,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G14" s="2">
         <v>147630</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>30</v>
@@ -2301,7 +2814,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>23</v>
@@ -2313,13 +2826,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G15" s="2">
         <v>73060</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>30</v>
@@ -2345,7 +2858,7 @@
         <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>23</v>
@@ -2357,13 +2870,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2">
         <v>52680</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>30</v>
@@ -2389,7 +2902,7 @@
         <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>23</v>
@@ -2401,13 +2914,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G17" s="2">
         <v>22860</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>30</v>
@@ -2433,7 +2946,7 @@
         <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -2445,13 +2958,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G18" s="2">
         <v>118800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>30</v>
@@ -2490,19 +3003,19 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1">
         <v>10200000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2513,19 +3026,19 @@
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>10200000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖正井_2012-04-20_財產申報表_tmp845a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2012-04-20_財產申報表_tmp845a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -278,6 +278,12 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>加典投資公司</t>
   </si>
   <si>
@@ -288,6 +294,9 @@
   </si>
   <si>
     <t>個人投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2992,15 +3001,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>86</v>
@@ -3008,17 +3017,38 @@
       <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="1">
-        <v>10200000</v>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>134</v>
       </c>
@@ -3026,19 +3056,40 @@
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
         <v>10200000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1711</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
